--- a/biology/Biochimie/Acide_sélénophosphorique/Acide_sélénophosphorique.xlsx
+++ b/biology/Biochimie/Acide_sélénophosphorique/Acide_sélénophosphorique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_s%C3%A9l%C3%A9nophosphorique</t>
+          <t>Acide_sélénophosphorique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acide sélénophosphorique est un composé chimique de formule O=P(SeH)(OH)2.
-En biochimie, l'anion sélénophosphate SePO33− est un donneur activé de sélénium pour la biosynthèse de la sélénocystéine, l'un des 22 acides aminés protéinogènes. Il est produit in vivo à partir de l'anion séléniure Se2− et de phosphate par la sélénophosphate synthase[2], et intervient dans la formation du L-sélénocystéinyl-ARNtSec à partir de L-séryl-ARNtSec sous l'action de la sélénocystéine synthase[3] chez les bactéries, et à partir de l'O-phospho-L-séryl-ARNtSec sous l'action de l'O-phosphoséryl-ARNt:sélénocystéinyl-ARNt synthase[4],[5] chez les archées et les eucaryotes.
-La sélénocystéine est un acide aminé rare mais indispensable aux sélénoprotéines, et ce dans les trois domaines du vivant[6]. Elle n'existe pas à l'état libre dans les cellules et est toujours synthétisée sur son ARN de transfert.
+En biochimie, l'anion sélénophosphate SePO33− est un donneur activé de sélénium pour la biosynthèse de la sélénocystéine, l'un des 22 acides aminés protéinogènes. Il est produit in vivo à partir de l'anion séléniure Se2− et de phosphate par la sélénophosphate synthase, et intervient dans la formation du L-sélénocystéinyl-ARNtSec à partir de L-séryl-ARNtSec sous l'action de la sélénocystéine synthase chez les bactéries, et à partir de l'O-phospho-L-séryl-ARNtSec sous l'action de l'O-phosphoséryl-ARNt:sélénocystéinyl-ARNt synthase, chez les archées et les eucaryotes.
+La sélénocystéine est un acide aminé rare mais indispensable aux sélénoprotéines, et ce dans les trois domaines du vivant. Elle n'existe pas à l'état libre dans les cellules et est toujours synthétisée sur son ARN de transfert.
 </t>
         </is>
       </c>
